--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,50 +456,60 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Текущие обязательства, всего (стр.610+630+640+650+660+670+680+690+700+710+720+ +730+740+750+760)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ИТОГО ПО II РАЗДЕЛУ (стр. 490+600)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Чистая Прибыль</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Отношение долга к собственному капиталу</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Маржа EBIT</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Оборачиваемость активов</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Рентабельность капитала</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Чистая прибыль сум</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Чистая выручка</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Общие активы</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Общие oбязательства</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ROE</t>
         </is>
@@ -524,33 +534,39 @@
         <v>29794418</v>
       </c>
       <c r="F2" t="n">
+        <v>12092078</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14578137</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.31</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>95.81</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.18</v>
       </c>
       <c r="J2" t="n">
         <v>0.01</v>
       </c>
       <c r="K2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M2" t="n">
         <v>106851</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>35014605</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>29794418</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>14578137</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.7</v>
       </c>
     </row>
@@ -573,33 +589,39 @@
         <v>31374384</v>
       </c>
       <c r="F3" t="n">
+        <v>11739443</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13106775</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.73</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>71.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.01</v>
       </c>
       <c r="J3" t="n">
         <v>0.01</v>
       </c>
       <c r="K3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="n">
         <v>231979</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>31748768</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>31374384</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>13106775</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>1.27</v>
       </c>
     </row>
@@ -622,33 +644,39 @@
         <v>48479810</v>
       </c>
       <c r="F4" t="n">
+        <v>28911379</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30278711</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.78</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>166.36</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>0.01</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>0.86</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.02</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>325610</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>41772584</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>48479810</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>30278711</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>1.79</v>
       </c>
     </row>
@@ -671,33 +699,39 @@
         <v>53668957</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24484093</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.25</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>83.89</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.02</v>
       </c>
       <c r="J5" t="n">
         <v>0.04</v>
       </c>
       <c r="K5" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M5" t="n">
         <v>1229593</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>54607989</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>53668957</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>24484093</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>4.21</v>
       </c>
     </row>
@@ -720,33 +754,39 @@
         <v>42771370</v>
       </c>
       <c r="F6" t="n">
+        <v>11058108</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11058108</v>
+      </c>
+      <c r="H6" t="n">
         <v>5.22</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>34.87</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>1.28</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.09</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>2862557</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>54821380</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>42771370</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>11058108</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>9.029999999999999</v>
       </c>
     </row>
@@ -769,33 +809,39 @@
         <v>43475949</v>
       </c>
       <c r="F7" t="n">
+        <v>7491987</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7491987</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.59</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>20.82</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>0.05</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.67</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>1046796</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>29197981</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>43475949</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>7491987</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>2.91</v>
       </c>
     </row>
@@ -818,33 +864,39 @@
         <v>43647997</v>
       </c>
       <c r="F8" t="n">
+        <v>6819166</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6819166</v>
+      </c>
+      <c r="H8" t="n">
         <v>5.7</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>18.52</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>0.08</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.05</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>2014801</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>35345181</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>43647997</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>6819166</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>5.47</v>
       </c>
     </row>
@@ -867,33 +919,39 @@
         <v>43452314</v>
       </c>
       <c r="F9" t="n">
+        <v>6386668</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6386668</v>
+      </c>
+      <c r="H9" t="n">
         <v>5.99</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>17.23</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>0.08</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>0.75</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.05</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1941016</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>32388301</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>43452314</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>6386668</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>5.24</v>
       </c>
     </row>
@@ -916,33 +974,39 @@
         <v>40855915</v>
       </c>
       <c r="F10" t="n">
+        <v>4579888</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4579888</v>
+      </c>
+      <c r="H10" t="n">
         <v>2.18</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>12.98</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>0.04</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>1.1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.03</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>984308</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>45050340</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>40855915</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>4579888</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>2.79</v>
       </c>
     </row>
@@ -965,33 +1029,39 @@
         <v>42692816</v>
       </c>
       <c r="F11" t="n">
+        <v>6540586</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6540586</v>
+      </c>
+      <c r="H11" t="n">
         <v>2.46</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>18.09</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>0.05</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>1.13</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.03</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>1186529</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>48271254</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>42692816</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>6540586</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>3.28</v>
       </c>
     </row>
